--- a/pred_ohlcv/54_21/2020-01-22 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 AOA ohlcv.xlsx
@@ -3070,7 +3070,7 @@
         <v>-34955947.49806813</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-34955947.49806813</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-34960873.71316813</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-34959839.84216813</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-36174237.75986813</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-34070497.75986813</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-36928501.68006813</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-38496336.68006813</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38496336.68006813</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-38495760.76616813</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-38408928.82336812</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-38403825.35296812</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-38393765.70676812</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-38388205.06446812</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-38473688.79766811</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-38510208.13026811</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-38535938.25196811</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-38535368.25196811</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-38536912.70986811</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-38527138.06366811</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-38527138.06366811</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-35743697.8752681</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-35743982.8752681</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-35744267.8752681</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-34274657.9417681</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-34809415.9417681</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-34808447.3643681</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-34807992.0041681</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-34611998.7130681</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-34980369.1223681</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-35049632.58346809</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-34911050.41857746</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-34268959.1159681</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-34241966.6606681</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-36181674.4931681</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-38305331.9785681</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-36720059.5437415</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-37220721.8292415</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-36997319.9808415</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-36997319.9808415</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-44693676.65570752</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-46100559.65570752</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-46097144.44750752</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-45814028.38130752</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-45814028.38130752</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-41867353.29030752</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-41803514.62830752</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-41746441.72250752</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-41813527.36220752</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-41617270.88260753</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-41617270.88260753</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-41618270.88260753</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 AOA ohlcv.xlsx
@@ -3070,7 +3070,7 @@
         <v>-34955947.49806813</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-34955947.49806813</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-34960873.71316813</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-34959839.84216813</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-36174237.75986813</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-34070497.75986813</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-36928501.68006813</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-38496336.68006813</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-38496336.68006813</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-38495760.76616813</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-38407751.08366812</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-38407181.08366812</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-38407466.08366812</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-38408928.82336812</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-38431758.35296812</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-38403825.35296812</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-38393765.70676812</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-38388205.06446812</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-38455574.52446812</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-38473688.79766811</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-38510208.13026811</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-38535938.25196811</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-38535368.25196811</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-38536912.70986811</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-38527138.06366811</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-38527138.06366811</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-38079145.89886811</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-35743697.8752681</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-35743982.8752681</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-35744267.8752681</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-35871125.2868681</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-34588447.7840681</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-34274657.9417681</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-34809415.9417681</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-34808447.3643681</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-34807992.0041681</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-34807992.0041681</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-34808964.7051681</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-34611998.7130681</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-34980369.1223681</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-34979632.58346809</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-34911050.41857746</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-34268959.1159681</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-34241966.6606681</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-33259862.4380681</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-36903806.7122681</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-38963072.7122681</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-38822182.4746681</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-35670124.4746681</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-36182338.4746681</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-36181674.4931681</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-36181674.4931681</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-38305331.9785681</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-36720059.5437415</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-37220721.8292415</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-36997319.9808415</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-36997319.9808415</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-42355063.89075906</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-42259074.65570752</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-44693676.65570752</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-46097144.44750752</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-45814028.38130752</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-45814028.38130752</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-45748597.13560752</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-41867353.29030752</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-41803514.62830752</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-41746441.72250752</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-41813527.36220752</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-41617270.88260753</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
